--- a/User Study/user_study.xlsx
+++ b/User Study/user_study.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PC-Data\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\idan\Projects\DeepLearning\DropTheGANUseDINO\User Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A5471C-D33A-496F-B339-43DB9C43229E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13065"/>
+    <workbookView xWindow="1035" yWindow="4140" windowWidth="21600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -200,7 +212,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -233,10 +245,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,11 +528,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,54 +547,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="M1" s="2"/>
+      <c r="N1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1" t="s">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1" t="s">
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1" t="s">
+      <c r="S1" s="2"/>
+      <c r="T1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1" t="s">
+      <c r="U1" s="2"/>
+      <c r="V1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1" t="s">
+      <c r="W1" s="2"/>
+      <c r="X1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" s="1"/>
+      <c r="Y1" s="2"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -2207,7 +2219,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:N23" si="0">AVERAGE(C3:C22)</f>
+        <f t="shared" ref="C23:M23" si="0">AVERAGE(C3:C22)</f>
         <v>3.05</v>
       </c>
       <c r="D23">
@@ -2339,25 +2351,20 @@
       <c r="A31" t="s">
         <v>55</v>
       </c>
-      <c r="B31">
-        <v>1.0519196E-4</v>
+      <c r="B31" s="1">
+        <v>4.5690906999999999E-5</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="2">
-        <v>4.5690906999999999E-5</v>
+      <c r="B32">
+        <v>1.0519196E-4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
@@ -2365,6 +2372,11 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
